--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_C.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_C.xlsx
@@ -1666,7 +1666,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleById("sukutsu_arena_master", 5, true);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_c_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_C.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_C.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1520,158 +1520,92 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>obs_1</t>
+          <t>narr_11</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>（観客の声：「……堕ちた英雄たちか。哀れだな」）</t>
+          <t>（バルガスの声が、遠くから聞こえる。）</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>（観客の声：「……堕ちた英雄たちか。哀れだな」）</t>
+          <t>（バルガスの声が、遠くから聞こえる。）</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>obs_2</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>（観客の声：「賭けは『新人が感情に飲まれて敗北』で」）</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>（観客の声：「賭けは『新人が感情に飲まれて敗北』で」）</t>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>obs_3</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>（観客の声：「いや、この新人は……冷静に戦うだろう」）</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>（観客の声：「いや、この新人は……冷静に戦うだろう」）</t>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>narr_11</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>（バルガスの声が、遠くから聞こえる。）</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>（バルガスの声が、遠くから聞こえる。）</t>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>balgas_echo</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>……頼んだぞ。</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>……頼んだぞ。</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="D73" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_c_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="D74" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>balgas_echo</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>……頼んだぞ。</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>……頼んだぞ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_c_trial", "sukutsu_arena_master");</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="D77" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_C.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_C.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,38 +578,68 @@
       </c>
     </row>
     <row r="13">
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>balgas_1</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>……おい、銅貨稼ぎ。</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>……おい、銅貨稼ぎ。</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>balgas_2</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>次の試験は……俺にとっても、お前にとっても、辛いもんになる。</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>次の試験は……俺にとっても、お前にとっても、辛いもんになる。</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>balgas_3</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>対戦相手は『堕ちた英雄たちの残党』だ。</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>対戦相手は『堕ちた英雄たちの残党』だ。</t>
         </is>
       </c>
     </row>
@@ -621,39 +651,39 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>balgas_1</t>
+          <t>balgas_4</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>……おい、銅貨稼ぎ。</t>
+          <t>……かつて、俺と一緒に地獄を這いずり回った仲間たちだ。カインのように、このアリーナに魂を食い尽くされ、ただの戦闘人形と化した連中だ。</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>……おい、銅貨稼ぎ。</t>
+          <t>……かつて、俺と一緒に地獄を這いずり回った仲間たちだ。カインのように、このアリーナに魂を食い尽くされ、ただの戦闘人形と化した連中だ。</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="F17" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>balgas_2</t>
+          <t>narr_4</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>次の試験は……俺にとっても、お前にとっても、辛いもんになる。</t>
+          <t>（彼は拳を握りしめる。）</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>次の試験は……俺にとっても、お前にとっても、辛いもんになる。</t>
+          <t>（彼は拳を握りしめる。）</t>
         </is>
       </c>
     </row>
@@ -665,17 +695,17 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>balgas_3</t>
+          <t>balgas_5</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>対戦相手は『堕ちた英雄たちの残党』だ。</t>
+          <t>あいつらは、もう『人間』じゃねえ。だが……俺にとっては、今でも仲間だ。</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>対戦相手は『堕ちた英雄たちの残党』だ。</t>
+          <t>あいつらは、もう『人間』じゃねえ。だが……俺にとっては、今でも仲間だ。</t>
         </is>
       </c>
     </row>
@@ -687,171 +717,141 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>balgas_4</t>
+          <t>balgas_6</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>……かつて、俺と一緒に地獄を這いずり回った仲間たちだ。カインのように、このアリーナに魂を食い尽くされ、ただの戦闘人形と化した連中だ。</t>
+          <t>お前が戦うのは、そんな連中だ。……覚悟はあるか？</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>……かつて、俺と一緒に地獄を這いずり回った仲間たちだ。カインのように、このアリーナに魂を食い尽くされ、ただの戦闘人形と化した連中だ。</t>
+          <t>お前が戦うのは、そんな連中だ。……覚悟はあるか？</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>react1_who</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>narr_4</t>
+          <t>c1_who</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>（彼は拳を握りしめる。）</t>
+          <t>どんな相手だ？</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>（彼は拳を握りしめる。）</t>
+          <t>どんな相手だ？</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="F21" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>react1_strong</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>c1_strong</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>強いのか？</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>強いのか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>react1_silent</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>c1_silent</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>（無言で聞く）</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>（無言で聞く）</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>react1_who</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>balgas_5</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>あいつらは、もう『人間』じゃねえ。だが……俺にとっては、今でも仲間だ。</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>あいつらは、もう『人間』じゃねえ。だが……俺にとっては、今でも仲間だ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>balgas_6</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>お前が戦うのは、そんな連中だ。……覚悟はあるか？</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>お前が戦うのは、そんな連中だ。……覚悟はあるか？</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>react1_who</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>c1_who</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>どんな相手だ？</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>どんな相手だ？</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>react1_strong</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>c1_strong</t>
+          <t>balgas_r1</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>強いのか？</t>
+          <t>……剣士、弓使い、魔導師。俺たちが誇った『黄金のトライアングル』だ。</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>強いのか？</t>
+          <t>……剣士、弓使い、魔導師。俺たちが誇った『黄金のトライアングル』だ。</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>react1_silent</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>c1_silent</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
+          <t>scene2_balgas_grief</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>react1_who</t>
+          <t>react1_strong</t>
         </is>
       </c>
     </row>
@@ -863,17 +863,17 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>balgas_r1</t>
+          <t>balgas_r2</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>……剣士、弓使い、魔導師。俺たちが誇った『黄金のトライアングル』だ。</t>
+          <t>ああ。カインよりも、もっと強い。……だが、お前なら勝てる。</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>……剣士、弓使い、魔導師。俺たちが誇った『黄金のトライアングル』だ。</t>
+          <t>ああ。カインよりも、もっと強い。……だが、お前なら勝てる。</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>react1_strong</t>
+          <t>react1_silent</t>
         </is>
       </c>
     </row>
@@ -899,17 +899,17 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>balgas_r2</t>
+          <t>balgas_r3</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>ああ。カインよりも、もっと強い。……だが、お前なら勝てる。</t>
+          <t>……まあ、黙って聞いててくれ。続きがある。</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>ああ。カインよりも、もっと強い。……だが、お前なら勝てる。</t>
+          <t>……まあ、黙って聞いててくれ。続きがある。</t>
         </is>
       </c>
     </row>
@@ -923,55 +923,85 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>react1_silent</t>
+          <t>scene2_balgas_grief</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="F33" t="inlineStr">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>narr_5</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>（バルガスは深く息を吐く。）</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>（バルガスは深く息を吐く。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>balgas_r3</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>……まあ、黙って聞いててくれ。続きがある。</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>……まあ、黙って聞いててくれ。続きがある。</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>scene2_balgas_grief</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>scene2_balgas_grief</t>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>balgas_7</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>……頼む。あいつらを、この地獄から解放してやってくれ。</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>……頼む。あいつらを、この地獄から解放してやってくれ。</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow");             }</t>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>balgas_8</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>俺には……もう、仲間を救う力がねえ。だが、お前なら……お前ならできる。</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>俺には……もう、仲間を救う力がねえ。だが、お前なら……お前ならできる。</t>
         </is>
       </c>
     </row>
@@ -983,185 +1013,215 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>narr_5</t>
+          <t>narr_6</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>（バルガスは深く息を吐く。）</t>
+          <t>（リリィが近づいてくる。）</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>（バルガスは深く息を吐く。）</t>
+          <t>（リリィが近づいてくる。）</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>balgas_7</t>
+          <t>lily_1</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>……頼む。あいつらを、この地獄から解放してやってくれ。</t>
+          <t>……お客様。</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>……頼む。あいつらを、この地獄から解放してやってくれ。</t>
+          <t>……お客様。</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>balgas_8</t>
+          <t>lily_2</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>俺には……もう、仲間を救う力がねえ。だが、お前なら……お前ならできる。</t>
+          <t>彼らは『英雄』でした。ですが、今は……ただの『記憶』です。</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>俺には……もう、仲間を救う力がねえ。だが、お前なら……お前ならできる。</t>
+          <t>彼らは『英雄』でした。ですが、今は……ただの『記憶』です。</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>narr_6</t>
+          <t>lily_3</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>（リリィが近づいてくる。）</t>
+          <t>あなたがどれほど優しく戦っても、彼らに意識は戻りません。</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>（リリィが近づいてくる。）</t>
+          <t>あなたがどれほど優しく戦っても、彼らに意識は戻りません。</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>lily_4</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>……ですが、倒すことで、彼らの魂はこの牢獄から解放されます。</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>……ですが、倒すことで、彼らの魂はこの牢獄から解放されます。</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>lily_5</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>これは、慈悲の戦いです。……準備はよろしいですか？</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>これは、慈悲の戦いです。……準備はよろしいですか？</t>
+        </is>
+      </c>
     </row>
     <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>react2_mercy</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>0.5</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>c2_mercy</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>……慈悲か。分かった</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>……慈悲か。分かった</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>react2_necessary</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>lily_1</t>
+          <t>c2_necessary</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>……お客様。</t>
+          <t>必要なことなら、やる</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>……お客様。</t>
+          <t>必要なことなら、やる</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>react2_nod</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>lily_2</t>
+          <t>c2_nod</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>彼らは『英雄』でした。ですが、今は……ただの『記憶』です。</t>
+          <t>（無言で頷く）</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>彼らは『英雄』でした。ですが、今は……ただの『記憶』です。</t>
+          <t>（無言で頷く）</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>lily_3</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>あなたがどれほど優しく戦っても、彼らに意識は戻りません。</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>あなたがどれほど優しく戦っても、彼らに意識は戻りません。</t>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>react2_mercy</t>
         </is>
       </c>
     </row>
@@ -1173,127 +1233,67 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>lily_4</t>
+          <t>lily_r4</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>……ですが、倒すことで、彼らの魂はこの牢獄から解放されます。</t>
+          <t>……ええ。あなたなら、きっと。</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>……ですが、倒すことで、彼らの魂はこの牢獄から解放されます。</t>
+          <t>……ええ。あなたなら、きっと。</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>battle_start</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>react2_necessary</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="F50" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>lily_5</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>これは、慈悲の戦いです。……準備はよろしいですか？</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>これは、慈悲の戦いです。……準備はよろしいですか？</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>react2_mercy</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>c2_mercy</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>……慈悲か。分かった</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>……慈悲か。分かった</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>react2_necessary</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>c2_necessary</t>
+          <t>lily_r5</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>必要なことなら、やる</t>
+          <t>……強い方ですね。では、お任せします。</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>必要なことなら、やる</t>
+          <t>……強い方ですね。では、お任せします。</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>react2_nod</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>c2_nod</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
+          <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>react2_mercy</t>
+          <t>react2_nod</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>lily_r4</t>
+          <t>lily_r6</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>……ええ。あなたなら、きっと。</t>
+          <t>……無口ですが、覚悟は決まったようですね。</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>……ええ。あなたなら、きっと。</t>
+          <t>……無口ですが、覚悟は決まったようですね。</t>
         </is>
       </c>
     </row>
@@ -1329,283 +1329,175 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>react2_necessary</t>
+          <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>lily_r5</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>……強い方ですね。では、お任せします。</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>……強い方ですね。では、お任せします。</t>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_RankC_Heroic_Lament");             var data = SoundManager.current.GetData("BGM/Battle_RankC_Heroic_Lament");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_RankC_Heroic_Lament");             }</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>narr_7</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>（闘技場の門を潜ると、砂地の中央に三つの影が立っていた。）</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>（闘技場の門を潜ると、砂地の中央に三つの影が立っていた。）</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>react2_nod</t>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>narr_8</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>（錆びついた鎧を纏う剣士、ボロボロのローブを羽織る魔導師、折れた弓を持つ弓使い。）</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>（錆びついた鎧を纏う剣士、ボロボロのローブを羽織る魔導師、折れた弓を持つ弓使い。）</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>lily_r6</t>
+          <t>narr_9</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>……無口ですが、覚悟は決まったようですね。</t>
+          <t>（彼らの瞳には光がなく、ただ機械的に武器を構えている。）</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>……無口ですが、覚悟は決まったようですね。</t>
+          <t>（彼らの瞳には光がなく、ただ機械的に武器を構えている。）</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>narr_10</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>（だが、その動きには……かつての『誇り』の残滓が、微かに残っているように見えた。）</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>（だが、その動きには……かつての『誇り』の残滓が、微かに残っているように見えた。）</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_RankC_Heroic_Lament");             var data = SoundManager.current.GetData("BGM/Battle_RankC_Heroic_Lament");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_RankC_Heroic_Lament");             }</t>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>narr_11</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>（バルガスの声が、遠くから聞こえる。）</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>（バルガスの声が、遠くから聞こえる。）</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>narr_7</t>
+          <t>balgas_echo</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>（闘技場の門を潜ると、砂地の中央に三つの影が立っていた。）</t>
+          <t>……頼んだぞ。</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>（闘技場の門を潜ると、砂地の中央に三つの影が立っていた。）</t>
+          <t>……頼んだぞ。</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>narr_8</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>（錆びついた鎧を纏う剣士、ボロボロのローブを羽織る魔導師、折れた弓を持つ弓使い。）</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>（錆びついた鎧を纏う剣士、ボロボロのローブを羽織る魔導師、折れた弓を持つ弓使い。）</t>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_c_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>narr_9</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>（彼らの瞳には光がなく、ただ機械的に武器を構えている。）</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>（彼らの瞳には光がなく、ただ機械的に武器を構えている。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>narr_10</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>（だが、その動きには……かつての『誇り』の残滓が、微かに残っているように見えた。）</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>（だが、その動きには……かつての『誇り』の残滓が、微かに残っているように見えた。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>narr_11</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>（バルガスの声が、遠くから聞こえる。）</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>（バルガスの声が、遠くから聞こえる。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>balgas_echo</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>……頼んだぞ。</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>……頼んだぞ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_c_trial", "sukutsu_arena_master");</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="D74" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_C.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_C.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,194 +488,164 @@
     <row r="7">
       <c r="D7" t="inlineStr">
         <is>
+          <t>fadeOut</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.0,black</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="inlineStr">
+        <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/arena_battle_normal".LoadSprite();</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>fadeIn</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.0,black</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_01");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_01");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_01");             }</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="F8" t="inlineStr">
+    <row r="11">
+      <c r="F11" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>narr_1</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>（ロビーの空気が重い。）</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>（ロビーの空気が重い。）</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="F9" t="inlineStr">
+    <row r="12">
+      <c r="F12" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>narr_2</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>（バルガスは珍しく酒瓶を手にせず、険しい表情で闘技場の門を見つめている。）</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>（バルガスは珍しく酒瓶を手にせず、険しい表情で闘技場の門を見つめている。）</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="F10" t="inlineStr">
+    <row r="13">
+      <c r="F13" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>narr_3</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>（リリィも、いつもの妖艶な笑みを消し、羊皮紙を静かに整理していた。）</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>（リリィも、いつもの妖艶な笑みを消し、羊皮紙を静かに整理していた。）</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
+    <row r="14">
+      <c r="B14" t="inlineStr">
         <is>
           <t>scene1_heroes</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>scene1_heroes</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="D13" t="inlineStr">
+    <row r="16">
+      <c r="D16" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="D14" t="inlineStr">
+    <row r="17">
+      <c r="D17" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="D15" t="inlineStr">
+    <row r="18">
+      <c r="D18" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>balgas_1</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>……おい、銅貨稼ぎ。</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>……おい、銅貨稼ぎ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>balgas_2</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>次の試験は……俺にとっても、お前にとっても、辛いもんになる。</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>次の試験は……俺にとっても、お前にとっても、辛いもんになる。</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>balgas_3</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>対戦相手は『堕ちた英雄たちの残党』だ。</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>対戦相手は『堕ちた英雄たちの残党』だ。</t>
         </is>
       </c>
     </row>
@@ -687,39 +657,39 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>balgas_4</t>
+          <t>balgas_1</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>……かつて、俺と一緒に地獄を這いずり回った仲間たちだ。カインのように、このアリーナに魂を食い尽くされ、ただの戦闘人形と化した連中だ。</t>
+          <t>……おい、銅貨稼ぎ。</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>……かつて、俺と一緒に地獄を這いずり回った仲間たちだ。カインのように、このアリーナに魂を食い尽くされ、ただの戦闘人形と化した連中だ。</t>
+          <t>……おい、銅貨稼ぎ。</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="F20" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>narr_4</t>
+          <t>balgas_2</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>（彼は拳を握りしめる。）</t>
+          <t>次の試験は……俺にとっても、お前にとっても、辛いもんになる。</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>（彼は拳を握りしめる。）</t>
+          <t>次の試験は……俺にとっても、お前にとっても、辛いもんになる。</t>
         </is>
       </c>
     </row>
@@ -731,17 +701,17 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>balgas_5</t>
+          <t>balgas_3</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>あいつらは、もう『人間』じゃねえ。だが……俺にとっては、今でも仲間だ。</t>
+          <t>対戦相手は『堕ちた英雄たちの残党』だ。</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>あいつらは、もう『人間』じゃねえ。だが……俺にとっては、今でも仲間だ。</t>
+          <t>対戦相手は『堕ちた英雄たちの残党』だ。</t>
         </is>
       </c>
     </row>
@@ -753,141 +723,171 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>balgas_4</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>……かつて、俺と一緒に地獄を這いずり回った仲間たちだ。カインのように、このアリーナに魂を食い尽くされ、ただの戦闘人形と化した連中だ。</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>……かつて、俺と一緒に地獄を這いずり回った仲間たちだ。カインのように、このアリーナに魂を食い尽くされ、ただの戦闘人形と化した連中だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>narr_4</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>（彼は拳を握りしめる。）</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>（彼は拳を握りしめる。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>balgas_5</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>あいつらは、もう『人間』じゃねえ。だが……俺にとっては、今でも仲間だ。</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>あいつらは、もう『人間』じゃねえ。だが……俺にとっては、今でも仲間だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>balgas_6</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>お前が戦うのは、そんな連中だ。……覚悟はあるか？</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>お前が戦うのは、そんな連中だ。……覚悟はあるか？</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
+    <row r="26">
+      <c r="B26" t="inlineStr">
         <is>
           <t>react1_who</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>c1_who</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>どんな相手だ？</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>どんな相手だ？</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
+    <row r="27">
+      <c r="B27" t="inlineStr">
         <is>
           <t>react1_strong</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>c1_strong</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>強いのか？</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>強いのか？</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>react1_silent</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>c1_silent</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>react1_who</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>balgas_r1</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>……剣士、弓使い、魔導師。俺たちが誇った『黄金のトライアングル』だ。</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>……剣士、弓使い、魔導師。俺たちが誇った『黄金のトライアングル』だ。</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>scene2_balgas_grief</t>
+          <t>react1_silent</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>c1_silent</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>（無言で聞く）</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>（無言で聞く）</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>react1_strong</t>
+          <t>react1_who</t>
         </is>
       </c>
     </row>
@@ -899,17 +899,17 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>balgas_r2</t>
+          <t>balgas_r1</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>ああ。カインよりも、もっと強い。……だが、お前なら勝てる。</t>
+          <t>……剣士、弓使い、魔導師。俺たちが誇った『黄金のトライアングル』だ。</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>ああ。カインよりも、もっと強い。……だが、お前なら勝てる。</t>
+          <t>……剣士、弓使い、魔導師。俺たちが誇った『黄金のトライアングル』だ。</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>react1_silent</t>
+          <t>react1_strong</t>
         </is>
       </c>
     </row>
@@ -935,17 +935,17 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>balgas_r3</t>
+          <t>balgas_r2</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>……まあ、黙って聞いててくれ。続きがある。</t>
+          <t>ああ。カインよりも、もっと強い。……だが、お前なら勝てる。</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>……まあ、黙って聞いててくれ。続きがある。</t>
+          <t>ああ。カインよりも、もっと強い。……だが、お前なら勝てる。</t>
         </is>
       </c>
     </row>
@@ -959,85 +959,55 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>react1_silent</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>balgas_r3</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>……まあ、黙って聞いててくれ。続きがある。</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>……まあ、黙って聞いててくれ。続きがある。</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
           <t>scene2_balgas_grief</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="D36" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>scene2_balgas_grief</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="D39" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>narr_5</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>（バルガスは深く息を吐く。）</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>（バルガスは深く息を吐く。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>balgas_7</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>……頼む。あいつらを、この地獄から解放してやってくれ。</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>……頼む。あいつらを、この地獄から解放してやってくれ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>balgas_8</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>俺には……もう、仲間を救う力がねえ。だが、お前なら……お前ならできる。</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>俺には……もう、仲間を救う力がねえ。だが、お前なら……お前ならできる。</t>
         </is>
       </c>
     </row>
@@ -1049,119 +1019,119 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
+          <t>narr_5</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>（バルガスは深く息を吐く。）</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>（バルガスは深く息を吐く。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>balgas_7</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>……頼む。あいつらを、この地獄から解放してやってくれ。</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>……頼む。あいつらを、この地獄から解放してやってくれ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>balgas_8</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>俺には……もう、仲間を救う力がねえ。だが、お前なら……お前ならできる。</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>俺には……もう、仲間を救う力がねえ。だが、お前なら……お前ならできる。</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
           <t>narr_6</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>（リリィが近づいてくる。）</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>（リリィが近づいてくる。）</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="D41" t="inlineStr">
+    <row r="44">
+      <c r="D44" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="D42" t="inlineStr">
+    <row r="45">
+      <c r="D45" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="D43" t="inlineStr">
+    <row r="46">
+      <c r="D46" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>lily_1</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>……お客様。</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>……お客様。</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>lily_2</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>彼らは『英雄』でした。ですが、今は……ただの『記憶』です。</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>彼らは『英雄』でした。ですが、今は……ただの『記憶』です。</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>lily_3</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>あなたがどれほど優しく戦っても、彼らに意識は戻りません。</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>あなたがどれほど優しく戦っても、彼らに意識は戻りません。</t>
         </is>
       </c>
     </row>
@@ -1173,17 +1143,17 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>lily_4</t>
+          <t>lily_1</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>……ですが、倒すことで、彼らの魂はこの牢獄から解放されます。</t>
+          <t>……お客様。</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>……ですが、倒すことで、彼らの魂はこの牢獄から解放されます。</t>
+          <t>……お客様。</t>
         </is>
       </c>
     </row>
@@ -1195,141 +1165,171 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
+          <t>lily_2</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>彼らは『英雄』でした。ですが、今は……ただの『記憶』です。</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>彼らは『英雄』でした。ですが、今は……ただの『記憶』です。</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>lily_3</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>あなたがどれほど優しく戦っても、彼らに意識は戻りません。</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>あなたがどれほど優しく戦っても、彼らに意識は戻りません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>lily_4</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>……ですが、倒すことで、彼らの魂はこの牢獄から解放されます。</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>……ですが、倒すことで、彼らの魂はこの牢獄から解放されます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
           <t>lily_5</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>これは、慈悲の戦いです。……準備はよろしいですか？</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>これは、慈悲の戦いです。……準備はよろしいですか？</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="B49" t="inlineStr">
+    <row r="52">
+      <c r="B52" t="inlineStr">
         <is>
           <t>react2_mercy</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>c2_mercy</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>……慈悲か。分かった</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>……慈悲か。分かった</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="B50" t="inlineStr">
+    <row r="53">
+      <c r="B53" t="inlineStr">
         <is>
           <t>react2_necessary</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>c2_necessary</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>必要なことなら、やる</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>必要なことなら、やる</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>react2_nod</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>c2_nod</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>react2_mercy</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>lily_r4</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>……ええ。あなたなら、きっと。</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>……ええ。あなたなら、きっと。</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>battle_start</t>
+          <t>react2_nod</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>c2_nod</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>react2_necessary</t>
+          <t>react2_mercy</t>
         </is>
       </c>
     </row>
@@ -1341,17 +1341,17 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>lily_r5</t>
+          <t>lily_r4</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>……強い方ですね。では、お任せします。</t>
+          <t>……ええ。あなたなら、きっと。</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>……強い方ですね。では、お任せします。</t>
+          <t>……ええ。あなたなら、きっと。</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>react2_nod</t>
+          <t>react2_necessary</t>
         </is>
       </c>
     </row>
@@ -1377,17 +1377,17 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>lily_r6</t>
+          <t>lily_r5</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>……無口ですが、覚悟は決まったようですね。</t>
+          <t>……強い方ですね。では、お任せします。</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>……無口ですが、覚悟は決まったようですね。</t>
+          <t>……強い方ですね。では、お任せします。</t>
         </is>
       </c>
     </row>
@@ -1401,85 +1401,55 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>react2_nod</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>lily_r6</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>……無口ですが、覚悟は決まったようですね。</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>……無口ですが、覚悟は決まったようですね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="inlineStr">
+        <is>
           <t>battle_start</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="D62" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>battle_start</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="D65" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_RankC_Heroic_Lament");             var data = SoundManager.current.GetData("BGM/Battle_RankC_Heroic_Lament");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_RankC_Heroic_Lament");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>narr_7</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>（闘技場の門を潜ると、砂地の中央に三つの影が立っていた。）</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>（闘技場の門を潜ると、砂地の中央に三つの影が立っていた。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>narr_8</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>（錆びついた鎧を纏う剣士、ボロボロのローブを羽織る魔導師、折れた弓を持つ弓使い。）</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>（錆びついた鎧を纏う剣士、ボロボロのローブを羽織る魔導師、折れた弓を持つ弓使い。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>narr_9</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>（彼らの瞳には光がなく、ただ機械的に武器を構えている。）</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>（彼らの瞳には光がなく、ただ機械的に武器を構えている。）</t>
         </is>
       </c>
     </row>
@@ -1491,24 +1461,39 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>narr_10</t>
+          <t>narr_7</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>（だが、その動きには……かつての『誇り』の残滓が、微かに残っているように見えた。）</t>
+          <t>（闘技場の門を潜ると、砂地の中央に三つの影が立っていた。）</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>（だが、その動きには……かつての『誇り』の残滓が、微かに残っているように見えた。）</t>
+          <t>（闘技場の門を潜ると、砂地の中央に三つの影が立っていた。）</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>narr_8</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>（錆びついた鎧を纏う剣士、ボロボロのローブを羽織る魔導師、折れた弓を持つ弓使い。）</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>（錆びついた鎧を纏う剣士、ボロボロのローブを羽織る魔導師、折れた弓を持つ弓使い。）</t>
         </is>
       </c>
     </row>
@@ -1520,92 +1505,143 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>narr_11</t>
+          <t>narr_9</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>（バルガスの声が、遠くから聞こえる。）</t>
+          <t>（彼らの瞳には光がなく、ただ機械的に武器を構えている。）</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>（バルガスの声が、遠くから聞こえる。）</t>
+          <t>（彼らの瞳には光がなく、ただ機械的に武器を構えている。）</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>narr_10</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>（だが、その動きには……かつての『誇り』の残滓が、微かに残っているように見えた。）</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>（だが、その動きには……かつての『誇り』の残滓が、微かに残っているように見えた。）</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="D70" t="inlineStr">
         <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>narr_11</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>（バルガスの声が、遠くから聞こえる。）</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>（バルガスの声が、遠くから聞こえる。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="D72" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>balgas_echo</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>……頼んだぞ。</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>……頼んだぞ。</t>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="D73" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_c_trial", "sukutsu_arena_master");</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="D74" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>balgas_echo</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>……頼んだぞ。</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>……頼んだぞ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_c_trial", "sukutsu_arena_master");</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="D77" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_C.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_C.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,40 +439,45 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>if2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>action</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>actor</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>text_JP</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>text_EN</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>text</t>
         </is>
@@ -486,114 +491,114 @@
       </c>
     </row>
     <row r="7">
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>fadeOut</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/arena_battle_normal".LoadSprite();</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>fadeIn</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_01");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_01");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_01");             }</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>narr_1</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>（ロビーの空気が重い。）</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>（ロビーの空気が重い。）</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>narr_2</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>（バルガスは珍しく酒瓶を手にせず、険しい表情で闘技場の門を見つめている。）</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>（バルガスは珍しく酒瓶を手にせず、険しい表情で闘技場の門を見つめている。）</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>narr_3</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>（リリィも、いつもの妖艶な笑みを消し、羊皮紙を静かに整理していた。）</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>（リリィも、いつもの妖艶な笑みを消し、羊皮紙を静かに整理していた。）</t>
         </is>
@@ -614,190 +619,190 @@
       </c>
     </row>
     <row r="16">
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>balgas_1</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>……おい、銅貨稼ぎ。</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>……おい、銅貨稼ぎ。</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>balgas_2</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>次の試験は……俺にとっても、お前にとっても、辛いもんになる。</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>次の試験は……俺にとっても、お前にとっても、辛いもんになる。</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>balgas_3</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>対戦相手は『堕ちた英雄たちの残党』だ。</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>対戦相手は『堕ちた英雄たちの残党』だ。</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>balgas_4</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>……かつて、俺と一緒に地獄を這いずり回った仲間たちだ。カインのように、このアリーナに魂を食い尽くされ、ただの戦闘人形と化した連中だ。</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>……かつて、俺と一緒に地獄を這いずり回った仲間たちだ。カインのように、このアリーナに魂を食い尽くされ、ただの戦闘人形と化した連中だ。</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>narr_4</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>（彼は拳を握りしめる。）</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>（彼は拳を握りしめる。）</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>balgas_5</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>あいつらは、もう『人間』じゃねえ。だが……俺にとっては、今でも仲間だ。</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>あいつらは、もう『人間』じゃねえ。だが……俺にとっては、今でも仲間だ。</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>balgas_6</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>お前が戦うのは、そんな連中だ。……覚悟はあるか？</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>お前が戦うのは、そんな連中だ。……覚悟はあるか？</t>
         </is>
@@ -809,22 +814,22 @@
           <t>react1_who</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>c1_who</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>どんな相手だ？</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>どんな相手だ？</t>
         </is>
@@ -836,22 +841,22 @@
           <t>react1_strong</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>c1_strong</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>強いのか？</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>強いのか？</t>
         </is>
@@ -863,22 +868,22 @@
           <t>react1_silent</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>c1_silent</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>（無言で聞く）</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>（無言で聞く）</t>
         </is>
@@ -892,22 +897,22 @@
       </c>
     </row>
     <row r="30">
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>balgas_r1</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>……剣士、弓使い、魔導師。俺たちが誇った『黄金のトライアングル』だ。</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>……剣士、弓使い、魔導師。俺たちが誇った『黄金のトライアングル』だ。</t>
         </is>
@@ -928,22 +933,22 @@
       </c>
     </row>
     <row r="33">
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>balgas_r2</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>ああ。カインよりも、もっと強い。……だが、お前なら勝てる。</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>ああ。カインよりも、もっと強い。……だが、お前なら勝てる。</t>
         </is>
@@ -964,22 +969,22 @@
       </c>
     </row>
     <row r="36">
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>balgas_r3</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>……まあ、黙って聞いててくれ。続きがある。</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>……まあ、黙って聞いててくれ。続きがある。</t>
         </is>
@@ -1000,246 +1005,246 @@
       </c>
     </row>
     <row r="39">
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow");             }</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>narr_5</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>（バルガスは深く息を吐く。）</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>（バルガスは深く息を吐く。）</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>balgas_7</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>……頼む。あいつらを、この地獄から解放してやってくれ。</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>……頼む。あいつらを、この地獄から解放してやってくれ。</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>balgas_8</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>俺には……もう、仲間を救う力がねえ。だが、お前なら……お前ならできる。</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>俺には……もう、仲間を救う力がねえ。だが、お前なら……お前ならできる。</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>narr_6</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>（リリィが近づいてくる。）</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>（リリィが近づいてくる。）</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>lily_1</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>……お客様。</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>……お客様。</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>lily_2</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>彼らは『英雄』でした。ですが、今は……ただの『記憶』です。</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>彼らは『英雄』でした。ですが、今は……ただの『記憶』です。</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>lily_3</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>あなたがどれほど優しく戦っても、彼らに意識は戻りません。</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>あなたがどれほど優しく戦っても、彼らに意識は戻りません。</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>lily_4</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>……ですが、倒すことで、彼らの魂はこの牢獄から解放されます。</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>……ですが、倒すことで、彼らの魂はこの牢獄から解放されます。</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>lily_5</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>これは、慈悲の戦いです。……準備はよろしいですか？</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>これは、慈悲の戦いです。……準備はよろしいですか？</t>
         </is>
@@ -1251,22 +1256,22 @@
           <t>react2_mercy</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>c2_mercy</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>……慈悲か。分かった</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>……慈悲か。分かった</t>
         </is>
@@ -1278,22 +1283,22 @@
           <t>react2_necessary</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>c2_necessary</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>必要なことなら、やる</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>必要なことなら、やる</t>
         </is>
@@ -1305,22 +1310,22 @@
           <t>react2_nod</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>c2_nod</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>（無言で頷く）</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>（無言で頷く）</t>
         </is>
@@ -1334,22 +1339,22 @@
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>lily_r4</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>……ええ。あなたなら、きっと。</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>……ええ。あなたなら、きっと。</t>
         </is>
@@ -1370,22 +1375,22 @@
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>lily_r5</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>……強い方ですね。では、お任せします。</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>……強い方ですね。では、お任せします。</t>
         </is>
@@ -1406,22 +1411,22 @@
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>lily_r6</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>……無口ですが、覚悟は決まったようですね。</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>……無口ですが、覚悟は決まったようですね。</t>
         </is>
@@ -1442,206 +1447,206 @@
       </c>
     </row>
     <row r="65">
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_RankC_Heroic_Lament");             var data = SoundManager.current.GetData("BGM/Battle_RankC_Heroic_Lament");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_RankC_Heroic_Lament");             }</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>narr_7</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>（闘技場の門を潜ると、砂地の中央に三つの影が立っていた。）</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>（闘技場の門を潜ると、砂地の中央に三つの影が立っていた。）</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>narr_8</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>（錆びついた鎧を纏う剣士、ボロボロのローブを羽織る魔導師、折れた弓を持つ弓使い。）</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>（錆びついた鎧を纏う剣士、ボロボロのローブを羽織る魔導師、折れた弓を持つ弓使い。）</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>narr_9</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>（彼らの瞳には光がなく、ただ機械的に武器を構えている。）</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>（彼らの瞳には光がなく、ただ機械的に武器を構えている。）</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>narr_10</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>（だが、その動きには……かつての『誇り』の残滓が、微かに残っているように見えた。）</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>（だが、その動きには……かつての『誇り』の残滓が、微かに残っているように見えた。）</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>narr_11</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>（バルガスの声が、遠くから聞こえる。）</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>（バルガスの声が、遠くから聞こえる。）</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>balgas_echo</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>……頼んだぞ。</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>……頼んだぞ。</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_c_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>end</t>
         </is>
